--- a/eksamen.xlsx
+++ b/eksamen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikolaiborbe/Documents/Uni/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikol\MAIN\Uni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8ADEC0C-5FD8-BF4B-AC17-CBF7456A5C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A2727F-64A1-4AD3-B705-FC3D49638B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4100" yWindow="1880" windowWidth="41320" windowHeight="24360" activeTab="1" xr2:uid="{D37DFA22-E2FC-FE4A-B7F4-0D3B6480DFEE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{D37DFA22-E2FC-FE4A-B7F4-0D3B6480DFEE}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="8" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="MF" sheetId="7" r:id="rId4"/>
     <sheet name="LA" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,8 +31,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>Level</t>
   </si>
@@ -139,6 +137,36 @@
   </si>
   <si>
     <t>Tidtaking</t>
+  </si>
+  <si>
+    <t>Må huske</t>
+  </si>
+  <si>
+    <t>Ratiotesten</t>
+  </si>
+  <si>
+    <t>Basikke integraler/derativer</t>
+  </si>
+  <si>
+    <t>Integrerende faktor</t>
+  </si>
+  <si>
+    <t>Omdreiningslegemer</t>
+  </si>
+  <si>
+    <t>Uegentlig integral (p-integral)</t>
+  </si>
+  <si>
+    <t>Buelengde til graf</t>
+  </si>
+  <si>
+    <t>TODO:</t>
+  </si>
+  <si>
+    <t>Lag ark med formler som må huskes</t>
+  </si>
+  <si>
+    <t>Analysens fundamentalteorem</t>
   </si>
 </sst>
 </file>
@@ -530,9 +558,9 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2">
         <v>1</v>
       </c>
@@ -540,7 +568,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>2</v>
       </c>
@@ -548,7 +576,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -570,17 +598,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD691CDB-DBE6-CB4A-B039-5852A72B496C}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="J13" sqref="J12:J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -594,7 +622,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -611,7 +639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -625,7 +653,7 @@
         <v>22.11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -639,7 +667,7 @@
         <v>23.11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -653,7 +681,7 @@
         <v>24.11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -670,7 +698,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -681,7 +709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -692,7 +720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -703,7 +731,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -714,7 +742,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -725,7 +753,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -736,7 +764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -747,7 +775,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -758,7 +786,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -803,19 +831,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B67C4F5B-9D92-124C-AA12-1A0B4A4F5217}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:G16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -828,8 +857,11 @@
       <c r="F1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>3</v>
       </c>
@@ -842,8 +874,17 @@
       <c r="E2">
         <v>18.11</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1">
+        <v>3</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -856,8 +897,14 @@
       <c r="E3">
         <v>19.11</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -870,8 +917,14 @@
       <c r="E4">
         <v>20.11</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I4" s="1">
+        <v>3</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -884,8 +937,14 @@
       <c r="E5">
         <v>21.11</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I5" s="1">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -898,8 +957,14 @@
       <c r="E6">
         <v>22.11</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I6" s="1">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -912,8 +977,14 @@
       <c r="E7">
         <v>23.11</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I7" s="1">
+        <v>3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -926,8 +997,14 @@
       <c r="E8">
         <v>24.11</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I8" s="1">
+        <v>3</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -940,8 +1017,9 @@
       <c r="E9">
         <v>25.11</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -954,8 +1032,9 @@
       <c r="E10">
         <v>26.11</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -968,8 +1047,12 @@
       <c r="E11">
         <v>27.11</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I11" s="1"/>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -982,8 +1065,14 @@
       <c r="E12">
         <v>28.11</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I12" s="1">
+        <v>3</v>
+      </c>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C13">
         <f>SUM(C2:C12)</f>
         <v>13.5</v>
@@ -992,17 +1081,17 @@
         <v>29.11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E14">
         <v>30.11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E15">
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E16">
         <v>2.12</v>
       </c>
@@ -1012,7 +1101,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A12">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="1"/>
         <cfvo type="num" val="2"/>
@@ -1024,7 +1113,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F15">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
@@ -1033,6 +1122,23 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="3"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" location="uegentlige_integral" xr:uid="{050D926F-9BD9-4242-912E-B2B0446F64E6}"/>
+    <hyperlink ref="J4" r:id="rId2" location="uegentlige_integral" display="Uegentlig integral (p-faktor)" xr:uid="{224FE701-FC04-4676-BF57-6E42497CC146}"/>
+    <hyperlink ref="J8" r:id="rId3" location="analysens_fundamentalteorem" display="Analysens fundamentaltheorem" xr:uid="{EF82D3E1-34BC-4B2C-B5E8-441FB2991E3D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1045,13 +1151,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1065,92 +1171,92 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E2">
         <v>20.11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E3">
         <v>21.11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E4">
         <v>22.11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E5">
         <v>23.11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E6">
         <v>24.11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E7">
         <v>25.11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E8">
         <v>26.11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E9">
         <v>27.11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E10">
         <v>28.11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E11">
         <v>29.11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E12">
         <v>30.11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E13">
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E14">
         <v>2.12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E15">
         <v>3.12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E16">
         <v>4.12</v>
       </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E17">
         <v>5.12</v>
       </c>
     </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E18">
         <v>6.12</v>
       </c>
     </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E19">
         <v>7.12</v>
       </c>
@@ -1193,13 +1299,13 @@
       <selection activeCell="B12" sqref="A2:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>

--- a/eksamen.xlsx
+++ b/eksamen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikol\MAIN\Uni\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikolaiborbe/Documents/Uni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A2727F-64A1-4AD3-B705-FC3D49638B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF397D4F-AD87-7240-9CCC-0B5098DF0DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{D37DFA22-E2FC-FE4A-B7F4-0D3B6480DFEE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25580" windowHeight="28300" activeTab="1" xr2:uid="{D37DFA22-E2FC-FE4A-B7F4-0D3B6480DFEE}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="8" r:id="rId1"/>
@@ -558,9 +558,9 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2">
         <v>1</v>
       </c>
@@ -568,7 +568,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>2</v>
       </c>
@@ -576,7 +576,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -598,17 +598,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD691CDB-DBE6-CB4A-B039-5852A72B496C}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J13" sqref="J12:J13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -622,7 +622,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -639,7 +639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -652,8 +652,11 @@
       <c r="E3">
         <v>22.11</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -667,7 +670,7 @@
         <v>23.11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -681,7 +684,7 @@
         <v>24.11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -698,7 +701,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -709,7 +712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -720,7 +723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -731,7 +734,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -742,7 +745,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -753,7 +756,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -764,7 +767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -775,7 +778,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -786,7 +789,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -833,18 +836,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B67C4F5B-9D92-124C-AA12-1A0B4A4F5217}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:H45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -861,7 +864,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>3</v>
       </c>
@@ -884,7 +887,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -904,7 +907,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -924,7 +927,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -944,7 +947,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -964,7 +967,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -984,7 +987,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -1004,7 +1007,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -1019,7 +1022,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -1034,7 +1037,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -1052,7 +1055,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -1072,7 +1075,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C13">
         <f>SUM(C2:C12)</f>
         <v>13.5</v>
@@ -1081,17 +1084,17 @@
         <v>29.11</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E14">
         <v>30.11</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E15">
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E16">
         <v>2.12</v>
       </c>
@@ -1140,6 +1143,7 @@
     <hyperlink ref="J8" r:id="rId3" location="analysens_fundamentalteorem" display="Analysens fundamentaltheorem" xr:uid="{EF82D3E1-34BC-4B2C-B5E8-441FB2991E3D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1151,13 +1155,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1171,92 +1175,92 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E2">
         <v>20.11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E3">
         <v>21.11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E4">
         <v>22.11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E5">
         <v>23.11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E6">
         <v>24.11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E7">
         <v>25.11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E8">
         <v>26.11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E9">
         <v>27.11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E10">
         <v>28.11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E11">
         <v>29.11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E12">
         <v>30.11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E13">
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E14">
         <v>2.12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E15">
         <v>3.12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E16">
         <v>4.12</v>
       </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E17">
         <v>5.12</v>
       </c>
     </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E18">
         <v>6.12</v>
       </c>
     </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E19">
         <v>7.12</v>
       </c>
@@ -1299,13 +1303,13 @@
       <selection activeCell="B12" sqref="A2:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>

--- a/eksamen.xlsx
+++ b/eksamen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikolaiborbe/Documents/Uni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF397D4F-AD87-7240-9CCC-0B5098DF0DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40546ACC-0A1E-A542-8269-26FCA55A446B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25580" windowHeight="28300" activeTab="1" xr2:uid="{D37DFA22-E2FC-FE4A-B7F4-0D3B6480DFEE}"/>
   </bookViews>
@@ -599,7 +599,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
